--- a/Latex_symbols.xlsx
+++ b/Latex_symbols.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\OneDrive\Desktop\AutoMATES\REPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\OneDrive\Desktop\AutoMATES\REPO\gauravs_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2DE2B7-66A3-4EA4-AC92-3CCB6DE8E293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982705A-42DA-420D-A426-7EAA429AF4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BD63972D-F6D7-44C9-B99B-D1A3ED9D1A15}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="307">
   <si>
     <t>Symbol</t>
   </si>
@@ -17331,7 +17331,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17379,7 +17379,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17427,7 +17427,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17475,7 +17475,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17523,7 +17523,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17571,7 +17571,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17619,7 +17619,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17667,7 +17667,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17715,7 +17715,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17763,7 +17763,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17811,7 +17811,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17859,7 +17859,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17907,7 +17907,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17955,7 +17955,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18003,7 +18003,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18051,7 +18051,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18099,7 +18099,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18147,7 +18147,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18195,7 +18195,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18243,7 +18243,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18291,7 +18291,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18339,7 +18339,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18387,7 +18387,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18435,7 +18435,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18483,7 +18483,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18531,7 +18531,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18579,7 +18579,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18627,7 +18627,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18675,7 +18675,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18723,7 +18723,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18771,7 +18771,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18808,6 +18808,135 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="AutoShape 46" descr="{\displaystyle \neq }">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DBDC27-3A66-4036-869E-BD836B813794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5189220" y="13997940"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="AutoShape 62" descr="{\displaystyle \neq \,}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2222FE3F-7ED9-4BD1-89C6-72B3AB89B898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5189220" y="24879300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="AutoShape 2" descr="{\displaystyle \neq \,}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484C01F2-A887-4665-B9ED-BE0956AF66A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5189220" y="46337220"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19110,8 +19239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F119EE-656C-4ED1-BF0E-373056D1DBB5}">
   <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:XFD118"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20813,9 +20942,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28D9879-DDC9-4C83-A502-B2C641E6E762}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -21099,9 +21228,849 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Latex_symbols.xlsx
+++ b/Latex_symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\OneDrive\Desktop\AutoMATES\REPO\gauravs_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982705A-42DA-420D-A426-7EAA429AF4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6877F3F-55BA-424E-9C73-013366202637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BD63972D-F6D7-44C9-B99B-D1A3ED9D1A15}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="310">
   <si>
     <t>Symbol</t>
   </si>
@@ -996,12 +996,21 @@
   <si>
     <t>\begin</t>
   </si>
+  <si>
+    <t>\neq</t>
+  </si>
+  <si>
+    <t>\ne</t>
+  </si>
+  <si>
+    <t>\neq or \ne</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,12 +1058,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1104,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,7 +1122,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17322,16 +17324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17370,16 +17372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17418,16 +17420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17466,16 +17468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17514,16 +17516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17562,16 +17564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17610,16 +17612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17658,16 +17660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17706,16 +17708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17754,16 +17756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17802,16 +17804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17850,16 +17852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17898,16 +17900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17946,16 +17948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17994,16 +17996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18042,16 +18044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18090,16 +18092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18138,16 +18140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18186,16 +18188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18234,16 +18236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18282,16 +18284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18330,16 +18332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18378,16 +18380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18426,16 +18428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18474,16 +18476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18522,16 +18524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18570,16 +18572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18618,16 +18620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18666,16 +18668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18714,16 +18716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18762,16 +18764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20942,10 +20944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28D9879-DDC9-4C83-A502-B2C641E6E762}">
-  <dimension ref="A1:A224"/>
+  <dimension ref="A1:A225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21214,12 +21216,12 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" t="s">
         <v>303</v>
       </c>
     </row>
@@ -21228,849 +21230,854 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
